--- a/hebrewOutputs/hebrew82Comperation_4_Common_alpha=0.34.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_4_Common_alpha=0.34.xlsx
@@ -34,13 +34,13 @@
     <t>personal</t>
   </si>
   <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t>היי.</t>
+  </si>
+  <si>
     <t>Unknown</t>
-  </si>
-  <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t>היי.</t>
   </si>
   <si>
     <t>הורה:</t>
@@ -760,21 +760,21 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -788,10 +788,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -802,7 +802,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -816,7 +816,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -830,10 +830,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -844,7 +844,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -858,7 +858,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -872,21 +872,21 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -900,10 +900,10 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -914,7 +914,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -928,10 +928,10 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -942,7 +942,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -956,10 +956,10 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -970,7 +970,7 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -984,10 +984,10 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -998,7 +998,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1012,10 +1012,10 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1026,7 +1026,7 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -1040,10 +1040,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1054,7 +1054,7 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -1068,10 +1068,10 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1096,7 +1096,7 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -1113,7 +1113,7 @@
         <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1124,7 +1124,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1141,7 +1141,7 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1152,7 +1152,7 @@
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1169,7 +1169,7 @@
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1194,10 +1194,10 @@
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1208,10 +1208,10 @@
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1222,7 +1222,7 @@
         <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1236,10 +1236,10 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1250,7 +1250,7 @@
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -1264,10 +1264,10 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1278,7 +1278,7 @@
         <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1292,10 +1292,10 @@
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1320,10 +1320,10 @@
         <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1334,7 +1334,7 @@
         <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1348,7 +1348,7 @@
         <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -1362,10 +1362,10 @@
         <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1376,7 +1376,7 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -1393,7 +1393,7 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1404,7 +1404,7 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -1421,7 +1421,7 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1435,7 +1435,7 @@
         <v>39</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1446,7 +1446,7 @@
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -1477,7 +1477,7 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1488,7 +1488,7 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
@@ -1502,10 +1502,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1516,7 +1516,7 @@
         <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
@@ -1530,7 +1530,7 @@
         <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
@@ -1544,10 +1544,10 @@
         <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1558,7 +1558,7 @@
         <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -1572,10 +1572,10 @@
         <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1586,7 +1586,7 @@
         <v>75</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -1600,10 +1600,10 @@
         <v>77</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1614,7 +1614,7 @@
         <v>42</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
@@ -1628,7 +1628,7 @@
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -1645,7 +1645,7 @@
         <v>47</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1659,7 +1659,7 @@
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1670,7 +1670,7 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
@@ -1684,10 +1684,10 @@
         <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1698,7 +1698,7 @@
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -1712,10 +1712,10 @@
         <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1726,7 +1726,7 @@
         <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
@@ -1740,7 +1740,7 @@
         <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -1768,10 +1768,10 @@
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1782,7 +1782,7 @@
         <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
@@ -1796,10 +1796,10 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1813,7 +1813,7 @@
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1824,7 +1824,7 @@
         <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
@@ -1838,10 +1838,10 @@
         <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1852,10 +1852,10 @@
         <v>97</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1866,10 +1866,10 @@
         <v>99</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1880,7 +1880,7 @@
         <v>42</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
@@ -1894,10 +1894,10 @@
         <v>57</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1908,10 +1908,10 @@
         <v>47</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1922,10 +1922,10 @@
         <v>97</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1936,7 +1936,7 @@
         <v>32</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
@@ -1950,10 +1950,10 @@
         <v>97</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1964,7 +1964,7 @@
         <v>42</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
@@ -1978,7 +1978,7 @@
         <v>26</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
@@ -1992,10 +1992,10 @@
         <v>108</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2006,10 +2006,10 @@
         <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2023,7 +2023,7 @@
         <v>47</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2034,10 +2034,10 @@
         <v>112</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2048,10 +2048,10 @@
         <v>24</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2062,7 +2062,7 @@
         <v>32</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
@@ -2076,10 +2076,10 @@
         <v>22</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2093,7 +2093,7 @@
         <v>47</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2104,7 +2104,7 @@
         <v>42</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -2118,10 +2118,10 @@
         <v>57</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2132,7 +2132,7 @@
         <v>32</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
@@ -2149,7 +2149,7 @@
         <v>18</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2160,10 +2160,10 @@
         <v>99</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2174,10 +2174,10 @@
         <v>123</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2188,10 +2188,10 @@
         <v>47</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2202,10 +2202,10 @@
         <v>126</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2216,10 +2216,10 @@
         <v>123</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2230,10 +2230,10 @@
         <v>47</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
